--- a/Camping_OM_Resources/Dataset/Dataset Refined/Camping1_Refined.xlsx
+++ b/Camping_OM_Resources/Dataset/Dataset Refined/Camping1_Refined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Camping_OM_Resources/Dataset/Dataset Refined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99C4CD-3B3E-F54C-89E1-5E477A5E61D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758B24F-423B-5B41-B23F-F1FF4238DE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7828C3CB-928D-DD4C-ABD5-580F5D69FBC1}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7828C3CB-928D-DD4C-ABD5-580F5D69FBC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -47,88 +47,175 @@
     <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE;</t>
   </si>
   <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE;</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE </t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig ass+H4oc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
     <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
   </si>
   <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
     <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
   </si>
   <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
   </si>
 </sst>
 </file>
@@ -480,19 +567,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFDD74-2AE0-AB4A-9475-FAE3E9FDAC91}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="116.1640625" customWidth="1"/>
+    <col min="1" max="1" width="124.6640625" customWidth="1"/>
     <col min="2" max="2" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,124 +587,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
+      <c r="B33" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Camping_OM_Resources/Dataset/Dataset Refined/Camping1_Refined.xlsx
+++ b/Camping_OM_Resources/Dataset/Dataset Refined/Camping1_Refined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Camping_OM_Resources/Dataset/Dataset Refined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758B24F-423B-5B41-B23F-F1FF4238DE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93151AE1-42C2-1C48-BD1D-783845542A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7828C3CB-928D-DD4C-ABD5-580F5D69FBC1}"/>
+    <workbookView xWindow="2780" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7828C3CB-928D-DD4C-ABD5-580F5D69FBC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -134,88 +134,124 @@
     <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
   </si>
   <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE;NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
   </si>
   <si>
     <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
   </si>
   <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE ,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
   </si>
 </sst>
 </file>
@@ -271,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -559,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,15 +603,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFDD74-2AE0-AB4A-9475-FAE3E9FDAC91}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="124.6640625" customWidth="1"/>
+    <col min="1" max="1" width="98" customWidth="1"/>
     <col min="2" max="2" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -592,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -600,119 +636,119 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -720,130 +756,250 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
-        <v>43</v>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Camping_OM_Resources/Dataset/Dataset Refined/Camping1_Refined.xlsx
+++ b/Camping_OM_Resources/Dataset/Dataset Refined/Camping1_Refined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Camping_OM_Resources/Dataset/Dataset Refined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93151AE1-42C2-1C48-BD1D-783845542A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76161E41-36F1-2744-BE5E-6DE22B2EA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7828C3CB-928D-DD4C-ABD5-580F5D69FBC1}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7828C3CB-928D-DD4C-ABD5-580F5D69FBC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,14 +605,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFDD74-2AE0-AB4A-9475-FAE3E9FDAC91}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98" customWidth="1"/>
-    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="1" max="1" width="130.33203125" customWidth="1"/>
+    <col min="2" max="2" width="112.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">

--- a/Camping_OM_Resources/Dataset/Dataset Refined/Camping1_Refined.xlsx
+++ b/Camping_OM_Resources/Dataset/Dataset Refined/Camping1_Refined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Camping_OM_Resources/Dataset/Dataset Refined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76161E41-36F1-2744-BE5E-6DE22B2EA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055696D5-F762-3841-A1D3-74DF5E4926E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7828C3CB-928D-DD4C-ABD5-580F5D69FBC1}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -951,7 +951,7 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
